--- a/Phần_2/Data/DM_LT.xlsx
+++ b/Phần_2/Data/DM_LT.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
